--- a/Dokumente/Wochenbericht.xlsx
+++ b/Dokumente/Wochenbericht.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cora\Documents\HTL - VILLACH\5AHIFS - 2018,19\BSD\ELIKAD\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA8DD64-8AEF-4C73-A7F5-C489ABD9A354}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17221D16-B3E5-49D2-BB8D-FB9E43A321FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{668CD8FE-E489-4676-A648-4211BC0CD669}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Woche</t>
   </si>
@@ -84,6 +84,9 @@
   <si>
     <t>ERD Überarbeitung
 GUI optimiert</t>
+  </si>
+  <si>
+    <t>Fragment mit Nav testen -&gt; Error suche</t>
   </si>
 </sst>
 </file>
@@ -219,13 +222,7 @@
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -237,6 +234,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -554,14 +557,14 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -580,132 +583,134 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="3">
         <v>43367</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="4">
         <v>43374</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="4">
         <v>43381</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="4">
         <v>43388</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="4">
         <v>43395</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="4">
         <v>43402</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="4">
         <v>43406</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="4">
         <v>43416</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="4">
         <v>43423</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="4">
         <v>43430</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="A12" s="4">
         <v>43437</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="A13" s="4">
         <v>43444</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="A14" s="4">
         <v>43451</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Dokumente/Wochenbericht.xlsx
+++ b/Dokumente/Wochenbericht.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cora\Documents\HTL - VILLACH\5AHIFS - 2018,19\BSD\ELIKAD\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17221D16-B3E5-49D2-BB8D-FB9E43A321FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155587A6-DD49-404D-B583-F5D00FF487B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{668CD8FE-E489-4676-A648-4211BC0CD669}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Woche</t>
   </si>
@@ -87,6 +87,13 @@
   </si>
   <si>
     <t>Fragment mit Nav testen -&gt; Error suche</t>
+  </si>
+  <si>
+    <t>Datenbank angelegt
+ERD richtiggestellt</t>
+  </si>
+  <si>
+    <t>Navigation funktioniert und Fragmente erstellt</t>
   </si>
 </sst>
 </file>
@@ -557,14 +564,14 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
     <col min="2" max="2" width="24.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -646,11 +653,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>43402</v>
       </c>
-      <c r="B7" s="5"/>
+      <c r="B7" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="C7" s="8" t="s">
         <v>16</v>
       </c>
@@ -661,7 +670,9 @@
         <v>43406</v>
       </c>
       <c r="B8" s="5"/>
-      <c r="C8" s="8"/>
+      <c r="C8" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">

--- a/Dokumente/Wochenbericht.xlsx
+++ b/Dokumente/Wochenbericht.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cora\Documents\HTL - VILLACH\5AHIFS - 2018,19\BSD\ELIKAD\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155587A6-DD49-404D-B583-F5D00FF487B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD6C4C3-28CD-4F9C-9B91-51E0195BC304}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{668CD8FE-E489-4676-A648-4211BC0CD669}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Woche</t>
   </si>
@@ -94,6 +94,29 @@
   </si>
   <si>
     <t>Navigation funktioniert und Fragmente erstellt</t>
+  </si>
+  <si>
+    <t>1. Präsentation</t>
+  </si>
+  <si>
+    <t>Alle Alarme anzeigen sowie deren Details + 
+Änderungen im Menü</t>
+  </si>
+  <si>
+    <t>Webservice aufgesetzt</t>
+  </si>
+  <si>
+    <t>member Routen implementiert und mit WPF verbunden</t>
+  </si>
+  <si>
+    <t>Login Page fertiggestellt
++ Beginn der Operationsanzeige</t>
+  </si>
+  <si>
+    <t>Fertigstellung der Operationsanzeige</t>
+  </si>
+  <si>
+    <t>Fertigstellung der Einsatzinformation</t>
   </si>
 </sst>
 </file>
@@ -117,7 +140,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -130,8 +153,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -222,11 +251,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -245,6 +300,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -564,15 +628,15 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B10" sqref="B10:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="43.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -653,7 +717,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>43402</v>
       </c>
@@ -663,33 +727,47 @@
       <c r="C7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="8"/>
+      <c r="D7" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>43406</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>43416</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
+      <c r="B9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>43423</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
+      <c r="B10" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -724,9 +802,10 @@
       <c r="D14" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B10:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
